--- a/medicine/Enfance/Benoît_Jacques/Benoît_Jacques.xlsx
+++ b/medicine/Enfance/Benoît_Jacques/Benoît_Jacques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Jacques</t>
+          <t>Benoît_Jacques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Jacques, né le 20 juin 1958 à Bruxelles (province de Brabant), est un illustrateur, auteur de bande dessinée et artiste belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Jacques</t>
+          <t>Benoît_Jacques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Jacques est issu d'un père libraire et journaliste et d'une mère artiste[1]. Sa scolarité est, selon ses propres dires, « une catastrophe sur toute la ligne »[1]. Benoît Jacques suit pendant trois ans les cours de l'Académie royale des beaux-arts et y obtient son baccalauréat artistique ; il y étudie Karel Appel, du mouvement CoBrA, qui influence sa démarche artistique[1]. Benoît Jacques passe ensuite deux ans en graphisme à l'École nationale supérieure des arts visuels de La Cambre[1].
-En 1979[2], il part s'installer à Londres, en Grande-Bretagne, où il reste une dizaine d'années[3]. Il commence à travailler dans le graphisme chez Pentagram (design studio) (en)[4] et l'illustration pour la presse internationale (Le Monde, Libération, The New Yorker, The Guardian, El País[5]). Il part ensuite aux États-Unis et travaille quelques mois auprès du dessinateur R. O. Blechman (en) à New York[4].
-Il crée une partition graphique intitulée Play It by Ear et, devant le refus des éditeurs, il fonde sa propre maison d'édition en 1989 : Benoît Jacques Books[1]. En 1991, il s'installe en France à Montigny-sur-Loing[4]. Il assume les fonctions d'« auteur, illustrateur, graveur, sculpteur, peintre, bricoleur, graphiste, chef de fabrication, représentant, diffuseur et distributeur »[1]. Le tirage habituel de ses ouvrages correspond à 3 000 exemplaires[1] et il a auto-publié une quarantaine de créations au cours de sa carrière jusqu'en 2020[3].
-En 2007, il est lauréat d'une bourse d'aide à la création de la Fédération Wallonie-Bruxelles[6]
-En 2008, il reçoit le prix Baobab au Salon du livre jeunesse de Montreuil pour son livre La Nuit du visiteur[1] et, en 2011, pour ce même livre, le prix Bernard Versele[7]. En 2010, avec L, paru chez L'Association, il signe un travail autobiographique[1]. En 2012, à Bruxelles, il reçoit le Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles[6],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Jacques est issu d'un père libraire et journaliste et d'une mère artiste. Sa scolarité est, selon ses propres dires, « une catastrophe sur toute la ligne ». Benoît Jacques suit pendant trois ans les cours de l'Académie royale des beaux-arts et y obtient son baccalauréat artistique ; il y étudie Karel Appel, du mouvement CoBrA, qui influence sa démarche artistique. Benoît Jacques passe ensuite deux ans en graphisme à l'École nationale supérieure des arts visuels de La Cambre.
+En 1979, il part s'installer à Londres, en Grande-Bretagne, où il reste une dizaine d'années. Il commence à travailler dans le graphisme chez Pentagram (design studio) (en) et l'illustration pour la presse internationale (Le Monde, Libération, The New Yorker, The Guardian, El País). Il part ensuite aux États-Unis et travaille quelques mois auprès du dessinateur R. O. Blechman (en) à New York.
+Il crée une partition graphique intitulée Play It by Ear et, devant le refus des éditeurs, il fonde sa propre maison d'édition en 1989 : Benoît Jacques Books. En 1991, il s'installe en France à Montigny-sur-Loing. Il assume les fonctions d'« auteur, illustrateur, graveur, sculpteur, peintre, bricoleur, graphiste, chef de fabrication, représentant, diffuseur et distributeur ». Le tirage habituel de ses ouvrages correspond à 3 000 exemplaires et il a auto-publié une quarantaine de créations au cours de sa carrière jusqu'en 2020.
+En 2007, il est lauréat d'une bourse d'aide à la création de la Fédération Wallonie-Bruxelles
+En 2008, il reçoit le prix Baobab au Salon du livre jeunesse de Montreuil pour son livre La Nuit du visiteur et, en 2011, pour ce même livre, le prix Bernard Versele. En 2010, avec L, paru chez L'Association, il signe un travail autobiographique. En 2012, à Bruxelles, il reçoit le Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Jacques</t>
+          <t>Benoît_Jacques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fête des pères (illustration), texte d'Agnès Desarthe, L'École des loisirs, 1992  (ISBN 9782211018388)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Fête des pères (illustration), texte d'Agnès Desarthe, L'École des loisirs, 1992  (ISBN 9782211018388)
 Virgule : priorité à la ponctuation (illustration), texte de Véronique Fleurquin, Syros jeunesse, 1994  (ISBN 9782863890080)
 Treize pierres, treize cailloux (livre d'estampes tiré à 18 ex.), éditions Petit Jaunais, 1995 (BNF 43553654)
 La Genèse (illustration), trad. de Lemaître de Sacy, éditions du Chêne, 1997  (ISBN 2-85108-871-8)
@@ -561,8 +577,43 @@
 Au jardin (livre d'estampes, tiré à 12 ex.), éditions Petit Jaunais, 2005 (BNF 44206686)
 C'est la cata ! Petit manuel du français maltraité, texte Pierre Bénard, Points, 2006  (ISBN 9782757801819)
 Die Europanichos Assimil, éditions L'Association, coll. « Patte de mouche », 2006  (ISBN 2-84414-202-8)
-L[9], éditions L'Association, 2010  (ISBN 978-2-84414-397-6)
-Livres auto-édités
+L, éditions L'Association, 2010  (ISBN 978-2-84414-397-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benoît_Jacques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Jacques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres auto-édités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Play it by ear, 1989
 Le Bestiaire expressionniste, 1990
 Oiseaux-Lire, 1992
@@ -595,42 +646,44 @@
 La Vallée enchantée, 2013
 La Légende de Pioung Fou (livre 2) La Forêt de Liang Gang Niang, 2014
 Ay! Mi Amor, 2015
-Jojo la plume[3], 2017  (ISBN 2-916683-22-4)
+Jojo la plume, 2017  (ISBN 2-916683-22-4)
 Poppeup, 2019
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beno%C3%AEt_Jacques</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benoît_Jacques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Jacques</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2008 :  prix Baobab au Salon du livre jeunesse de Montreuil pour son livre La Nuit du visiteur[1] ;
-2011 :  prix Bernard Versele[7] pour La Nuit du visiteur ;
-2012 :  Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles[8] ;
-2019 : prix Libbylit[10] décerné par l'IBBY, catégorie Album belge, pour Poppeup.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 :  prix Baobab au Salon du livre jeunesse de Montreuil pour son livre La Nuit du visiteur ;
+2011 :  prix Bernard Versele pour La Nuit du visiteur ;
+2012 :  Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles ;
+2019 : prix Libbylit décerné par l'IBBY, catégorie Album belge, pour Poppeup.</t>
         </is>
       </c>
     </row>
